--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3654855.864388506</v>
+        <v>3652603.7846773</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>150.0833098246637</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>143.0659977617352</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.472338733543</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.08107681484807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120.7740905403521</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>55.45354938846149</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247634</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>102.326278881443</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>9.595802811127321</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697828</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>4.41682081680507</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.75769145492295</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.069540131684027</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>182.4326803923963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>56.10180801516488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.66990246485226</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>90.48716302792783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
-        <v>184.2763748162661</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5056986361882</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>90.48716302792783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>66.25628701154714</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>70.803028119798</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.208022973022</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
         <v>779.1681669784198</v>
@@ -4322,16 +4322,16 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3063.71585028307</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3063.71585028307</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2710.947195012955</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2710.947195012955</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>2320.807863037144</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.8580214762837</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8580214762837</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408143</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>644.3338566427969</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.8580214762837</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.376265094905</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881544</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
         <v>828.1105664881544</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794322</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450751</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180637</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919557</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943746</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>732.4676803942461</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>563.5314974663393</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>413.4148580540035</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.908724368016</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>914.1161452244859</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218338</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218338</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218338</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218338</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218338</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621287</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251681</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271508</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836207</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.765362972544</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
         <v>847.644273983533</v>
@@ -5191,19 +5191,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5516,19 +5516,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,37 +5729,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2386.690454827884</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2386.690454827884</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2167.088989850826</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1878.013763195024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1177.747908249255</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>956.9553291057244</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>583.3384263047943</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>435.4253327224012</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>288.5353852244908</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>288.5353852244908</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,19 +6780,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>562.8579153358621</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.183521551621</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.21291626627</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2074.122646505557</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2497.745796000625</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2546.729326731942</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>709.4207169875</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.104893954106956e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.5151132204108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>69.70496293143168</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>196.0358353086631</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.70534424526943</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
-        <v>41.43328057277108</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>28.78901421003567</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>77.81244489841436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822757</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822757</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="H2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820638</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93403.78684820633</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820636</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820648</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820642</v>
-      </c>
       <c r="E4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750092.7917661234</v>
+        <v>-750092.7917661233</v>
       </c>
       <c r="C6" t="n">
-        <v>578651.953961469</v>
+        <v>578651.9539614692</v>
       </c>
       <c r="D6" t="n">
-        <v>578651.953961469</v>
+        <v>578651.9539614697</v>
       </c>
       <c r="E6" t="n">
-        <v>326037.5259973878</v>
+        <v>326002.788071953</v>
       </c>
       <c r="F6" t="n">
-        <v>651449.9878047439</v>
+        <v>651415.2498793079</v>
       </c>
       <c r="G6" t="n">
-        <v>651449.9878047438</v>
+        <v>651415.2498793082</v>
       </c>
       <c r="H6" t="n">
-        <v>651449.9878047436</v>
+        <v>651415.2498793078</v>
       </c>
       <c r="I6" t="n">
-        <v>651449.9878047436</v>
+        <v>651415.249879308</v>
       </c>
       <c r="J6" t="n">
-        <v>433918.7854074663</v>
+        <v>433884.0474820306</v>
       </c>
       <c r="K6" t="n">
-        <v>651449.9878047437</v>
+        <v>651415.249879308</v>
       </c>
       <c r="L6" t="n">
-        <v>651449.9878047436</v>
+        <v>651415.2498793082</v>
       </c>
       <c r="M6" t="n">
-        <v>566394.9598692318</v>
+        <v>566360.2219437966</v>
       </c>
       <c r="N6" t="n">
-        <v>651449.9878047437</v>
+        <v>651415.2498793078</v>
       </c>
       <c r="O6" t="n">
-        <v>651449.9878047439</v>
+        <v>651415.2498793077</v>
       </c>
       <c r="P6" t="n">
-        <v>651449.9878047438</v>
+        <v>651415.249879308</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022922</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>100.9118621342382</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>226.6651029167338</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549411</v>
       </c>
       <c r="Y4" t="n">
-        <v>179.5035765372467</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261.9597511231284</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>309.819342382546</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>44.10768376512614</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>276.9271955254637</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>344.824147900608</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.496150991986756e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970261</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550403</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796314</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>556.532545233504</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>253.1045048722855</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>650.2626573149953</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,10 +34217,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.8560084902135</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>152.0754244981388</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525818</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.934053971707</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629807</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>425.1908331501707</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>114.5501250924114</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>508.128623392977</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,10 +37865,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.87423440419198</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,16 +38096,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>6.39592053417488</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
